--- a/Semana 3/seguimiento .xlsx
+++ b/Semana 3/seguimiento .xlsx
@@ -484,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +549,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -880,7 +887,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -959,6 +966,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,7 +1085,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Correcto" xfId="1" builtinId="26"/>
@@ -1443,181 +1451,181 @@
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="16" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="16" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
       <c r="J12" t="s">
         <v>130</v>
       </c>
@@ -1626,16 +1634,16 @@
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
       <c r="J13" t="s">
         <v>136</v>
       </c>
@@ -1644,16 +1652,16 @@
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
       <c r="J14" t="s">
         <v>137</v>
       </c>
@@ -1662,16 +1670,16 @@
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" t="s">
         <v>138</v>
       </c>
@@ -1680,41 +1688,41 @@
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:25" ht="16" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="Q17" s="55" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="Q17" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
       <c r="Y17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1723,26 +1731,26 @@
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="Q18" s="55" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="Q18" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
       <c r="Y18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1751,26 +1759,26 @@
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="Q19" s="55" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="Q19" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
       <c r="Y19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1779,26 +1787,26 @@
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="Q20" s="55" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="Q20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
       <c r="Y20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1807,26 +1815,26 @@
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-      <c r="Q21" s="55" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="Q21" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
       <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1835,26 +1843,26 @@
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="Q22" s="55" t="s">
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="Q22" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
       <c r="Y22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1863,26 +1871,26 @@
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="Q23" s="55" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="Q23" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
       <c r="Y23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1891,26 +1899,26 @@
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="Q24" s="55" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="Q24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
       <c r="Y24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1919,26 +1927,26 @@
       <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="Q25" s="55" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="Q25" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
       <c r="Y25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1956,84 +1964,84 @@
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="55" t="s">
+      <c r="Q26" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
       <c r="Y26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="Q27" s="56" t="s">
+      <c r="Q27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
       <c r="Y27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="Q28" s="55" t="s">
+      <c r="Q28" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
       <c r="Y28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="Q29" s="55" t="s">
+      <c r="Q29" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
       <c r="Y29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="Q30" s="55" t="s">
+      <c r="Q30" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
       <c r="Y30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2107,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2123,15 +2131,18 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
       </c>
+      <c r="C2" s="71">
+        <v>5</v>
+      </c>
       <c r="D2">
         <f>C2*B2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2141,9 +2152,12 @@
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3">
         <f t="shared" ref="D3:D12" si="0">C3*B3</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G3" t="s">
         <v>149</v>
@@ -2156,9 +2170,12 @@
       <c r="B4" s="1">
         <v>0.05</v>
       </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>150</v>
@@ -2171,9 +2188,12 @@
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>151</v>
@@ -2186,9 +2206,12 @@
       <c r="B6" s="1">
         <v>0.1</v>
       </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2198,9 +2221,12 @@
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>148</v>
@@ -2213,33 +2239,42 @@
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
+      <c r="C10" s="71">
+        <v>3</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2249,9 +2284,12 @@
       <c r="B11" s="1">
         <v>0.1</v>
       </c>
+      <c r="C11" s="71">
+        <v>5</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2261,15 +2299,18 @@
       <c r="B12" s="1">
         <v>0.1</v>
       </c>
+      <c r="C12" s="71">
+        <v>5</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="D13">
         <f>SUM(D2:D12)</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2654,7 @@
   <dimension ref="A3:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
